--- a/biology/Zoologie/Archosauria/Archosauria.xlsx
+++ b/biology/Zoologie/Archosauria/Archosauria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les archosauriens (Archosauria[1]) sont un clade de diapsides regroupant les crocodiliens et les oiseaux, ainsi qu'un grand nombre de groupes disparus, comme les Pterosauria et les dinosaures non aviens.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les archosauriens (Archosauria) sont un clade de diapsides regroupant les crocodiliens et les oiseaux, ainsi qu'un grand nombre de groupes disparus, comme les Pterosauria et les dinosaures non aviens.
 L'avènement de la cladistique a montré la non-pertinence zoologique du groupe des reptiles.  [réf. nécessaire]
 Les archosauriens sont définis comme le groupe-couronne des crocodiliens et des oiseaux, appartenant (avec d'autres espèces fossiles) aux Archosauromorpha, groupe frère des Lepidosauromorpha (qui inclut les Lepidosauria, représentant la plupart des reptiles actuels, mais aussi les Sauropterygia, des « reptiles » marins préhistoriques).
 </t>
@@ -513,7 +525,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>les Pseudosuchia ("crocodiles" fossiles et crocodiliens actuels – crocodiles, alligators et gavials) ;
 les Dinosauria (représentés aujourd'hui par les oiseaux, seuls survivants actuels) ;
@@ -545,7 +559,9 @@
           <t>Principaux caractères dérivés propres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>existence d'une fenêtre antéorbitaire (ou préorbitale), disparaissant secondairement chez les crocodiliens et fusionnant avec l'orbite chez les oiseaux ;
 existence d'une fenêtre latéro-postérieure, sur la mandibule, bien visible chez les crocodiliens, absente chez certains oiseaux ;
@@ -580,7 +596,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Avesuchia
   --Archosauria
